--- a/back-end/程序/剧本信息/场景/scene.xlsx
+++ b/back-end/程序/剧本信息/场景/scene.xlsx
@@ -14,60 +14,51 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
-  <si>
-    <t>场景名称</t>
-  </si>
-  <si>
-    <t>场景介绍</t>
-  </si>
-  <si>
-    <t>杰克的房间</t>
-  </si>
-  <si>
-    <t>杰克在整理祖父的遗物时发现藏宝图，房间充满了旧时的回忆和神秘的氛围。</t>
-  </si>
-  <si>
-    <t>小镇的广场</t>
-  </si>
-  <si>
-    <t>杰克在此与莉莉相遇，两人讨论藏宝图并决定一起寻宝，广场上人们忙碌而和谐。</t>
-  </si>
-  <si>
-    <t>森林边缘</t>
-  </si>
-  <si>
-    <t>在这里，巴克加入了杰克和莉莉，森林神秘且充满未知，他们的寻宝之旅正式开始。</t>
-  </si>
-  <si>
-    <t>古老的神庙</t>
-  </si>
-  <si>
-    <t>寻宝小队在此解开第一个谜题，神庙内部阴暗，充满了机关和陷阱。</t>
-  </si>
-  <si>
-    <t>荒凉的沙漠</t>
-  </si>
-  <si>
-    <t>在穿越沙漠时，他们遇到了第二个难题，环境恶劣，但队伍的团结和智慧帮助他们继续前进。</t>
-  </si>
-  <si>
-    <t>隐藏的洞穴</t>
-  </si>
-  <si>
-    <t>最终，杰克、莉莉和巴克在洞穴中发现了宝藏，洞穴内部宽敞且神秘，充满了古代的遗迹。</t>
-  </si>
-  <si>
-    <t>小镇的庆典</t>
-  </si>
-  <si>
-    <t>寻宝小队回到小镇，举办庆典感谢他们的贡献，小镇焕然一新，到处都是欢声笑语。</t>
-  </si>
-  <si>
-    <t>小镇的纪念碑</t>
-  </si>
-  <si>
-    <t>为了纪念他们的英勇，小镇树立了一座纪念碑，杰克、莉莉和巴克的名字刻在上面，成为小镇的传奇。</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>character</t>
+  </si>
+  <si>
+    <t>content</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>艾米</t>
+  </si>
+  <si>
+    <t>「哇，杰克，你看这是什么？在这个森林里我们从未见过这样的东西。」</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>杰克</t>
+  </si>
+  <si>
+    <t>「天哪，这看起来像是一块奇异的石头，表面还有奇异的符号。这可能是某种古老的遗迹。」</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>「我们该怎么办？是不是应该告诉村里的人？」</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>「我觉得我们应该先调查一下。这个发现可能会引起不必要的恐慌，甚至可能招来麻烦。」</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>「你说的对。那我们小心一点，试着弄清楚这块石头究竟是什么，以及它为什么会出现在这里。」</t>
   </si>
 </sst>
 </file>
@@ -399,82 +390,76 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
         <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/back-end/程序/剧本信息/场景/scene.xlsx
+++ b/back-end/程序/剧本信息/场景/scene.xlsx
@@ -28,37 +28,37 @@
     <t>1</t>
   </si>
   <si>
-    <t>艾米</t>
-  </si>
-  <si>
-    <t>「哇，杰克，你看这是什么？在这个森林里我们从未见过这样的东西。」</t>
+    <t>李明</t>
+  </si>
+  <si>
+    <t>王雪，你看这本书上的字怎么在发光？我们之前都没注意到。</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>杰克</t>
-  </si>
-  <si>
-    <t>「天哪，这看起来像是一块奇异的石头，表面还有奇异的符号。这可能是某种古老的遗迹。」</t>
+    <t>王雪</t>
+  </si>
+  <si>
+    <t>是啊，太奇怪了。可能这本书不是普通的书，我们还是小心点好。</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
-    <t>「我们该怎么办？是不是应该告诉村里的人？」</t>
+    <t>我忍不住想碰一下这些发光的文字...</t>
   </si>
   <si>
     <t>4</t>
   </si>
   <si>
-    <t>「我觉得我们应该先调查一下。这个发现可能会引起不必要的恐慌，甚至可能招来麻烦。」</t>
+    <t>别！李明，你... 哇，你碰了之后，发生了什么？你的眼睛看起来不一样了。</t>
   </si>
   <si>
     <t>5</t>
   </si>
   <si>
-    <t>「你说的对。那我们小心一点，试着弄清楚这块石头究竟是什么，以及它为什么会出现在这里。」</t>
+    <t>我感觉我好像有了超能力！王雪，你也试试看。</t>
   </si>
 </sst>
 </file>
